--- a/Distribution/channel_weights.xlsx
+++ b/Distribution/channel_weights.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\Electrode_Rankings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7228074-2A1D-430C-B42B-F2530625C11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04779C57-0F1C-4ACE-9087-4B7120A88252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="80">
   <si>
     <t>Index_In_Origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +279,18 @@
     <t>LDANOVA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>LDPCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -320,13 +332,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -608,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +634,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,10 +648,19 @@
         <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -649,11 +673,20 @@
       <c r="D2" s="2">
         <v>3.4954216373581201E-3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
+        <v>1.3501283843491199E-4</v>
+      </c>
+      <c r="F2">
         <v>629.45784030349705</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G2" s="1">
+        <v>2.2688448225368801E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.2169165651974199E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -666,11 +699,20 @@
       <c r="D3" s="2">
         <v>3.5918765252834798E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
+        <v>3.21960670380223E-4</v>
+      </c>
+      <c r="F3">
         <v>722.18709699489102</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" s="1">
+        <v>1.7088091022106899E-3</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.25731472908971E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -683,11 +725,20 @@
       <c r="D4" s="2">
         <v>2.8678666469829799E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
+        <v>4.3531212296487101E-4</v>
+      </c>
+      <c r="F4">
         <v>728.48924270580596</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G4" s="1">
+        <v>1.6433944991153201E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.15999350437422E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,11 +751,20 @@
       <c r="D5" s="2">
         <v>2.9281322037327702E-3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
+        <v>1.8601959649661701E-5</v>
+      </c>
+      <c r="F5">
         <v>1240.7078154268399</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G5" s="1">
+        <v>1.25762156818325E-3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.36890124414587E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -717,11 +777,20 @@
       <c r="D6" s="2">
         <v>3.5844110769237998E-3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
+        <v>3.6252137260068103E-5</v>
+      </c>
+      <c r="F6">
         <v>1234.7471945925399</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G6" s="1">
+        <v>8.0738513239088697E-4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.2199343613318E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -734,11 +803,20 @@
       <c r="D7" s="2">
         <v>1.87014795814102E-3</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
+        <v>2.2882073765903202E-5</v>
+      </c>
+      <c r="F7">
         <v>369.114780594693</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G7" s="1">
+        <v>1.4656713298547E-3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9.9710514439683307E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,11 +829,20 @@
       <c r="D8" s="2">
         <v>2.6681435527116399E-3</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
+        <v>-5.4108026183629396E-4</v>
+      </c>
+      <c r="F8">
         <v>808.33614379857897</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" s="1">
+        <v>-9.7555354009458005E-4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.2268584839642299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -768,11 +855,20 @@
       <c r="D9" s="2">
         <v>2.45760188541645E-3</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
+        <v>-1.27669970758324E-4</v>
+      </c>
+      <c r="F9">
         <v>1763.13102934873</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G9" s="1">
+        <v>6.2513448922248604E-4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.31723773329039E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -785,11 +881,20 @@
       <c r="D10" s="2">
         <v>2.5067631118463399E-3</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
+        <v>-9.8016227813715203E-5</v>
+      </c>
+      <c r="F10">
         <v>2785.04012964718</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G10" s="1">
+        <v>6.9546931262792799E-4</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.4144265868000799E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -802,11 +907,20 @@
       <c r="D11" s="2">
         <v>2.6155035670140099E-3</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
+        <v>-8.4445762019949903E-5</v>
+      </c>
+      <c r="F11">
         <v>2679.6907938905501</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G11" s="1">
+        <v>5.8984723323889695E-4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.6228516819777199E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -819,11 +933,20 @@
       <c r="D12" s="2">
         <v>2.9689199235157101E-3</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
+        <v>-2.5816394165198398E-4</v>
+      </c>
+      <c r="F12">
         <v>2596.3896970311598</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G12" s="1">
+        <v>-1.3760129208321599E-3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.4886547191784E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -836,11 +959,20 @@
       <c r="D13" s="2">
         <v>2.2734712312292198E-3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
+        <v>8.0994089247919004E-4</v>
+      </c>
+      <c r="F13">
         <v>2162.8106578299298</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G13" s="1">
+        <v>1.2457648815799101E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1.3400158383960701E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -853,11 +985,20 @@
       <c r="D14" s="2">
         <v>1.64366760692653E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
+        <v>1.5503456657701999E-4</v>
+      </c>
+      <c r="F14">
         <v>1164.6322087211299</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G14" s="1">
+        <v>2.40656563994124E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.3583196443447E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -870,11 +1011,20 @@
       <c r="D15" s="2">
         <v>2.1011953390334698E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
+        <v>-1.4149711369874899E-4</v>
+      </c>
+      <c r="F15">
         <v>786.72472222933698</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G15" s="1">
+        <v>1.41005098916348E-3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1.26831685359492E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -887,11 +1037,20 @@
       <c r="D16" s="2">
         <v>1.7642732731989301E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
+        <v>-7.2078208424697398E-4</v>
+      </c>
+      <c r="F16">
         <v>784.017659182584</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G16" s="1">
+        <v>-6.8919779813528595E-4</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.4000888551512901E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -904,11 +1063,20 @@
       <c r="D17" s="2">
         <v>2.1344857037171902E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
+        <v>-2.9560211736046402E-4</v>
+      </c>
+      <c r="F17">
         <v>1428.4711731269599</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G17" s="1">
+        <v>9.5751501273597496E-4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.35729736393301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -921,11 +1089,20 @@
       <c r="D18" s="2">
         <v>2.5896556073195802E-3</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
+        <v>-1.7022262158298E-4</v>
+      </c>
+      <c r="F18">
         <v>2541.1880709796901</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G18" s="1">
+        <v>1.46868189374473E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1.5111099239235501E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -938,11 +1115,20 @@
       <c r="D19" s="2">
         <v>2.92137770909977E-3</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
+        <v>-8.1406528925559004E-5</v>
+      </c>
+      <c r="F19">
         <v>3972.44127159651</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G19" s="1">
+        <v>-1.91497908432215E-4</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.54348972365021E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -955,11 +1141,20 @@
       <c r="D20" s="2">
         <v>3.3713225056345498E-3</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
+        <v>-5.1970366271083602E-4</v>
+      </c>
+      <c r="F20">
         <v>4397.9106245512203</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G20" s="1">
+        <v>-2.4074082651845499E-3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.72489214254056E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -972,11 +1167,20 @@
       <c r="D21" s="2">
         <v>3.12925771269983E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
+        <v>5.7445314726429705E-4</v>
+      </c>
+      <c r="F21">
         <v>4275.5524333783997</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G21" s="1">
+        <v>-1.0899186604744399E-3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1.6452794588892199E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -989,11 +1193,20 @@
       <c r="D22" s="2">
         <v>1.77798108948373E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
+        <v>3.1794577649423602E-4</v>
+      </c>
+      <c r="F22">
         <v>2946.6910084793499</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G22" s="1">
+        <v>2.8910769634414701E-3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.42823013467871E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1006,11 +1219,20 @@
       <c r="D23" s="2">
         <v>2.1364704712168998E-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
+        <v>1.04159420087988E-4</v>
+      </c>
+      <c r="F23">
         <v>1604.59686200951</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G23" s="1">
+        <v>2.7990739687268301E-3</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1.3601789236996099E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1023,11 +1245,20 @@
       <c r="D24" s="2">
         <v>2.4873319999726301E-3</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
+        <v>3.5603053924375501E-5</v>
+      </c>
+      <c r="F24">
         <v>921.74544060840299</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <v>7.42643855912089E-4</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.3461329879208299E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1040,11 +1271,20 @@
       <c r="D25" s="2">
         <v>7.4745951208934399E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
+        <v>-6.80732297967994E-4</v>
+      </c>
+      <c r="F25">
         <v>742.09280073959599</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G25" s="1">
+        <v>3.21753693876167E-3</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1.53622189815825E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1057,11 +1297,20 @@
       <c r="D26" s="2">
         <v>2.5025899976969098E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
+        <v>-4.0853784783534999E-4</v>
+      </c>
+      <c r="F26">
         <v>1572.75123106039</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <v>-2.1995235104774599E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.4572237857218799E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1074,11 +1323,20 @@
       <c r="D27" s="2">
         <v>2.9110373716215001E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
+        <v>4.9524420545020095E-4</v>
+      </c>
+      <c r="F27">
         <v>3009.9767577348298</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G27" s="1">
+        <v>3.8745445943872E-4</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.62971388770289E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1091,11 +1349,20 @@
       <c r="D28" s="2">
         <v>3.1735894533662101E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
+        <v>-2.6928719213709801E-4</v>
+      </c>
+      <c r="F28">
         <v>5893.9482540085801</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G28" s="1">
+        <v>4.86070441931038E-4</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1.6620462871069899E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1108,11 +1375,20 @@
       <c r="D29" s="2">
         <v>1.96716200316763E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
+        <v>-2.52646109912132E-4</v>
+      </c>
+      <c r="F29">
         <v>82313.751997383399</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G29" s="1">
+        <v>-2.5248242922709099E-3</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.41067950124385E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1125,11 +1401,20 @@
       <c r="D30" s="2">
         <v>2.7866449158136298E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
+        <v>-6.8038789715879904E-5</v>
+      </c>
+      <c r="F30">
         <v>5944.5689435009999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G30" s="1">
+        <v>6.0235463418761598E-4</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1.7183910609680698E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1142,11 +1427,20 @@
       <c r="D31" s="2">
         <v>2.8147810883996402E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
+        <v>1.42527501461773E-4</v>
+      </c>
+      <c r="F31">
         <v>3134.0114403463199</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G31" s="1">
+        <v>2.2348609379762401E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1.62817367265203E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1159,11 +1453,20 @@
       <c r="D32" s="2">
         <v>2.4049504029550499E-3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
+        <v>-4.5209067257833504E-6</v>
+      </c>
+      <c r="F32">
         <v>1852.3476055209201</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G32" s="1">
+        <v>1.03403084579116E-3</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1.49630634168142E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1176,11 +1479,20 @@
       <c r="D33" s="2">
         <v>5.17096960431674E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
+        <v>-4.5552065414039799E-4</v>
+      </c>
+      <c r="F33">
         <v>1005.5250808967299</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G33" s="1">
+        <v>4.5883090464995703E-3</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1.55212906364192E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1193,11 +1505,20 @@
       <c r="D34" s="2">
         <v>5.1887086232275297E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
+        <v>-6.0589155970565704E-4</v>
+      </c>
+      <c r="F34">
         <v>984.07697394918796</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G34" s="1">
+        <v>-1.4113067061040901E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1.8203596954366099E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1210,11 +1531,20 @@
       <c r="D35" s="2">
         <v>2.68794125003765E-3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
+        <v>5.04721432752742E-5</v>
+      </c>
+      <c r="F35">
         <v>1871.0247252833899</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G35" s="1">
+        <v>-1.29401227558873E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1.6670447284088698E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1227,11 +1557,20 @@
       <c r="D36" s="2">
         <v>3.0283545505424298E-3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
+        <v>1.66320793962353E-4</v>
+      </c>
+      <c r="F36">
         <v>3256.2158478452102</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G36" s="3">
+        <v>-9.6890375436000406E-5</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.7164536103775E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1244,11 +1583,20 @@
       <c r="D37" s="2">
         <v>2.4741085047350298E-3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
+        <v>8.7360005414100297E-4</v>
+      </c>
+      <c r="F37">
         <v>4966.7770116071897</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G37" s="3">
+        <v>5.6866496397601403E-5</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1.6605314920626099E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1261,11 +1609,20 @@
       <c r="D38" s="2">
         <v>1.0566775959073001E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
+        <v>5.3307801362279005E-4</v>
+      </c>
+      <c r="F38">
         <v>130703.906330709</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G38" s="1">
+        <v>1.7890626582092799E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1.11613844588992E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1278,11 +1635,20 @@
       <c r="D39" s="2">
         <v>3.1652074177433301E-3</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
+        <v>9.7125743917600199E-4</v>
+      </c>
+      <c r="F39">
         <v>5058.61272217239</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G39" s="1">
+        <v>-1.28028091872026E-3</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.6380544458165999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1295,11 +1661,20 @@
       <c r="D40" s="2">
         <v>2.8720128752583E-3</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
+        <v>4.7337886011681099E-4</v>
+      </c>
+      <c r="F40">
         <v>2664.4467257256301</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G40" s="1">
+        <v>5.9174986174636505E-4</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1.6750078635588899E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1312,11 +1687,20 @@
       <c r="D41" s="2">
         <v>2.82772494361283E-3</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
+        <v>1.5996449025814901E-4</v>
+      </c>
+      <c r="F41">
         <v>1936.1148117645801</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G41" s="1">
+        <v>-1.1721403036017799E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1.6831487898192901E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1329,11 +1713,20 @@
       <c r="D42" s="2">
         <v>2.68036289501721E-3</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
+        <v>4.3589463510298799E-5</v>
+      </c>
+      <c r="F42">
         <v>1568.5416320624399</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G42" s="1">
+        <v>1.13557513347975E-3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.6018949019095199E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1346,11 +1739,20 @@
       <c r="D43" s="2">
         <v>4.1108766244722398E-3</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
+        <v>-1.4784209678181699E-4</v>
+      </c>
+      <c r="F43">
         <v>1460.42883797181</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G43" s="1">
+        <v>-1.20251868607546E-3</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1.62646623273889E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1363,11 +1765,20 @@
       <c r="D44" s="2">
         <v>2.9251089218812398E-3</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
+        <v>-1.8853172268481499E-4</v>
+      </c>
+      <c r="F44">
         <v>1939.3115138266</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G44" s="1">
+        <v>-2.4837661109604701E-3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1.5796697657608199E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1380,11 +1791,20 @@
       <c r="D45" s="2">
         <v>3.1718028893417301E-3</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
+        <v>2.6409837797092298E-5</v>
+      </c>
+      <c r="F45">
         <v>2499.5198886808898</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G45" s="1">
+        <v>-2.6311322373460602E-4</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1.6839858052553201E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1397,11 +1817,20 @@
       <c r="D46" s="2">
         <v>2.5886967289116799E-3</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
+        <v>1.2318088754481799E-3</v>
+      </c>
+      <c r="F46">
         <v>5639.4273084197703</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G46" s="3">
+        <v>1.61362062071454E-5</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1.7085641587873901E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1414,11 +1843,20 @@
       <c r="D47" s="2">
         <v>2.68515429638819E-3</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
+        <v>5.2271950167342995E-4</v>
+      </c>
+      <c r="F47">
         <v>13734.715399099299</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G47" s="1">
+        <v>5.2778178466395703E-4</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.6894193781678099E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1431,11 +1869,20 @@
       <c r="D48" s="2">
         <v>2.7783228588749201E-3</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
+        <v>6.7195453219345705E-4</v>
+      </c>
+      <c r="F48">
         <v>3059.6640910995402</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G48" s="1">
+        <v>5.2948833850393999E-4</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1.69779340152298E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1448,11 +1895,20 @@
       <c r="D49" s="2">
         <v>3.2720848919275099E-3</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
+        <v>4.0506001914590302E-4</v>
+      </c>
+      <c r="F49">
         <v>2181.1894263674099</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G49" s="1">
+        <v>1.4135646877039801E-3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.75853748922946E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1465,11 +1921,20 @@
       <c r="D50" s="2">
         <v>3.0419740173744801E-3</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
+        <v>-1.5350901839079899E-5</v>
+      </c>
+      <c r="F50">
         <v>2025.7666947641001</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G50" s="1">
+        <v>-8.8011167812399396E-4</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.7640683933558499E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1482,11 +1947,20 @@
       <c r="D51" s="2">
         <v>3.0733139063727501E-3</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
+        <v>-1.8883738287525699E-4</v>
+      </c>
+      <c r="F51">
         <v>1550.15300688569</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G51" s="1">
+        <v>-4.5283804818617202E-4</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1.6557003761246799E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1499,11 +1973,20 @@
       <c r="D52" s="2">
         <v>2.70936185777819E-3</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
+        <v>1.03216573977861E-4</v>
+      </c>
+      <c r="F52">
         <v>1678.8758453236201</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G52" s="3">
+        <v>-5.7414260101782502E-5</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1.5848861892079701E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1516,11 +1999,20 @@
       <c r="D53" s="2">
         <v>2.8574703590906699E-3</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
+        <v>1.09898945299338E-4</v>
+      </c>
+      <c r="F53">
         <v>1875.3923135259299</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G53" s="1">
+        <v>-5.6367307221818499E-4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1.5640811112565801E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1533,11 +2025,20 @@
       <c r="D54" s="2">
         <v>2.04601007734441E-3</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
+        <v>-8.4684329462962897E-5</v>
+      </c>
+      <c r="F54">
         <v>2002.59523951352</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G54" s="1">
+        <v>-6.8564089119034597E-4</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1.5906272445902599E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1550,11 +2051,20 @@
       <c r="D55" s="2">
         <v>2.5066121230242801E-3</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
+        <v>1.1105284232590001E-3</v>
+      </c>
+      <c r="F55">
         <v>2501.4267854180398</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G55" s="1">
+        <v>4.7519382009747301E-4</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1.8124671291441401E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1567,11 +2077,20 @@
       <c r="D56" s="2">
         <v>1.9920651949275098E-3</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
+        <v>2.08728081427845E-4</v>
+      </c>
+      <c r="F56">
         <v>2247.8829125002699</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G56" s="1">
+        <v>1.84044420982276E-3</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1.6436394617567299E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1584,11 +2103,20 @@
       <c r="D57" s="2">
         <v>2.4242993208227598E-3</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
+        <v>-1.19460336491082E-4</v>
+      </c>
+      <c r="F57">
         <v>2007.95418915449</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G57" s="1">
+        <v>2.41933825980808E-3</v>
+      </c>
+      <c r="H57" s="1">
+        <v>1.6173700486278399E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1601,11 +2129,20 @@
       <c r="D58" s="2">
         <v>2.7844256577323899E-3</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
+        <v>-2.1813802573022499E-4</v>
+      </c>
+      <c r="F58">
         <v>1743.97361930584</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G58" s="1">
+        <v>1.1821648977175E-3</v>
+      </c>
+      <c r="H58" s="1">
+        <v>1.7401193898343398E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1618,11 +2155,20 @@
       <c r="D59" s="2">
         <v>2.6919184892897001E-3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
+        <v>-2.2859140913199399E-5</v>
+      </c>
+      <c r="F59">
         <v>1543.5938688175299</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G59" s="1">
+        <v>-1.5199974418853199E-3</v>
+      </c>
+      <c r="H59" s="1">
+        <v>1.6764227213506799E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1635,11 +2181,20 @@
       <c r="D60" s="2">
         <v>2.4198186436599199E-3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
+        <v>-2.2325387995302401E-5</v>
+      </c>
+      <c r="F60">
         <v>1801.1800277038201</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G60" s="1">
+        <v>-7.44826435168328E-4</v>
+      </c>
+      <c r="H60" s="1">
+        <v>1.59160956248353E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1652,11 +2207,20 @@
       <c r="D61" s="2">
         <v>2.36176458573726E-3</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
+        <v>1.08999764838043E-4</v>
+      </c>
+      <c r="F61">
         <v>1764.19607046292</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G61" s="3">
+        <v>7.4130247595551006E-5</v>
+      </c>
+      <c r="H61" s="1">
+        <v>1.6665114130291901E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1669,11 +2233,20 @@
       <c r="D62" s="2">
         <v>1.8921124660822501E-3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
+        <v>4.13811632457083E-4</v>
+      </c>
+      <c r="F62">
         <v>1885.56996746749</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G62" s="1">
+        <v>1.0727273604354999E-3</v>
+      </c>
+      <c r="H62" s="1">
+        <v>1.66330169681582E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1686,8 +2259,17 @@
       <c r="D63" s="2">
         <v>3.8593913019357301E-3</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
+        <v>1.7978580987160401E-4</v>
+      </c>
+      <c r="F63">
         <v>1375.08963163609</v>
+      </c>
+      <c r="G63" s="1">
+        <v>-5.4013936002054595E-4</v>
+      </c>
+      <c r="H63" s="1">
+        <v>1.87270108784959E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Distribution/channel_weights.xlsx
+++ b/Distribution/channel_weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RnD_Repo\Research_Engineering\modeling_vce_dm\Distribution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RnD_Repo\Research_Engineeirng\modeling_vce_dm\Distribution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04779C57-0F1C-4ACE-9087-4B7120A88252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD66A36B-4CAC-4692-A492-97C9D960CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="600" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cws_label_driven" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
